--- a/Merge-Datasets-main/merged_file_1.1.xlsx
+++ b/Merge-Datasets-main/merged_file_1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziaur\OneDrive - Queensland University of Technology\Documents\GitHub\TestGraphTheory\Merge-Datasets-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8F7EA8E7-53B1-4FF0-9FAB-11FA5D760B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6FCCE825-79D7-43DD-88BD-4AFCAFC9180E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140"/>
   </bookViews>
@@ -12262,7 +12262,7 @@
   <dimension ref="A1:M1894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
